--- a/stats_code/output/run2_individual_variability_recalled_events/isc_posthoc_results_all_analyses.xlsx
+++ b/stats_code/output/run2_individual_variability_recalled_events/isc_posthoc_results_all_analyses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>comparison</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>n_yoke</t>
+  </si>
+  <si>
+    <t>cohens_d</t>
+  </si>
+  <si>
+    <t>mean_diff_ci_lower</t>
+  </si>
+  <si>
+    <t>mean_diff_ci_upper</t>
   </si>
   <si>
     <t>analysis</t>
@@ -416,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,10 +456,19 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>-7.285007915736605</v>
@@ -465,15 +483,24 @@
         <v>1378</v>
       </c>
       <c r="F2">
+        <v>-0.6207936974752797</v>
+      </c>
+      <c r="G2">
+        <v>-0.1131818718147733</v>
+      </c>
+      <c r="H2">
+        <v>-0.0651620715368663</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>-9.730831695914206</v>
@@ -485,18 +512,27 @@
         <v>153</v>
       </c>
       <c r="F3">
+        <v>-0.8262243071117837</v>
+      </c>
+      <c r="G3">
+        <v>-0.1351038878499387</v>
+      </c>
+      <c r="H3">
+        <v>-0.08977559322265255</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3">
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3">
         <v>1485</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>-4.463195523731609</v>
@@ -508,18 +544,27 @@
         <v>1378</v>
       </c>
       <c r="F4">
+        <v>-0.166943206668414</v>
+      </c>
+      <c r="G4">
+        <v>-0.03348988210092808</v>
+      </c>
+      <c r="H4">
+        <v>-0.01304565562002362</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
         <v>11</v>
-      </c>
-      <c r="H4">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>8</v>
       </c>
       <c r="B5">
         <v>-4.631997166965167</v>
@@ -534,15 +579,24 @@
         <v>1378</v>
       </c>
       <c r="F5">
+        <v>-0.3947167499658888</v>
+      </c>
+      <c r="G5">
+        <v>-0.08811619754125399</v>
+      </c>
+      <c r="H5">
+        <v>-0.03568849444773753</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>9</v>
       </c>
       <c r="B6">
         <v>-5.678539982310302</v>
@@ -554,18 +608,27 @@
         <v>153</v>
       </c>
       <c r="F6">
+        <v>-0.4821528014158201</v>
+      </c>
+      <c r="G6">
+        <v>-0.09671620252605673</v>
+      </c>
+      <c r="H6">
+        <v>-0.04705606269571588</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6">
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
         <v>1485</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>-1.738786535505999</v>
@@ -577,18 +640,27 @@
         <v>1378</v>
       </c>
       <c r="F7">
+        <v>-0.06503828891335149</v>
+      </c>
+      <c r="G7">
+        <v>-0.02124229567034987</v>
+      </c>
+      <c r="H7">
+        <v>0.001274722437568786</v>
+      </c>
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7">
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7">
         <v>1485</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>-7.189760167741995</v>
@@ -603,15 +675,24 @@
         <v>1378</v>
       </c>
       <c r="F8">
+        <v>-0.6126771377765536</v>
+      </c>
+      <c r="G8">
+        <v>-0.1212919682515055</v>
+      </c>
+      <c r="H8">
+        <v>-0.06929567838738103</v>
+      </c>
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>-9.495965118555016</v>
@@ -623,18 +704,27 @@
         <v>153</v>
       </c>
       <c r="F9">
+        <v>-0.80628228353082</v>
+      </c>
+      <c r="G9">
+        <v>-0.144722478522587</v>
+      </c>
+      <c r="H9">
+        <v>-0.09517173528891298</v>
+      </c>
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
         <v>13</v>
-      </c>
-      <c r="H9">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>10</v>
       </c>
       <c r="B10">
         <v>-4.322411916375102</v>
@@ -646,18 +736,27 @@
         <v>1378</v>
       </c>
       <c r="F10">
+        <v>-0.1616772785383392</v>
+      </c>
+      <c r="G10">
+        <v>-0.03583685407162925</v>
+      </c>
+      <c r="H10">
+        <v>-0.0134697131009842</v>
+      </c>
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10">
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10">
         <v>1485</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>-4.635683009196914</v>
@@ -672,15 +771,24 @@
         <v>1378</v>
       </c>
       <c r="F11">
+        <v>-0.3950308398960334</v>
+      </c>
+      <c r="G11">
+        <v>-0.09643348310594428</v>
+      </c>
+      <c r="H11">
+        <v>-0.03908918655147427</v>
+      </c>
+      <c r="I11">
         <v>4</v>
       </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>-5.599746903623048</v>
@@ -692,18 +800,27 @@
         <v>153</v>
       </c>
       <c r="F12">
+        <v>-0.4754626480067425</v>
+      </c>
+      <c r="G12">
+        <v>-0.1052473210130568</v>
+      </c>
+      <c r="H12">
+        <v>-0.05064362828376877</v>
+      </c>
+      <c r="I12">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12">
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12">
         <v>1485</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>-1.609490221578604</v>
@@ -715,12 +832,21 @@
         <v>1378</v>
       </c>
       <c r="F13">
+        <v>-0.06020203624580128</v>
+      </c>
+      <c r="G13">
+        <v>-0.02259117090627733</v>
+      </c>
+      <c r="H13">
+        <v>0.002222891266870313</v>
+      </c>
+      <c r="I13">
         <v>4</v>
       </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13">
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13">
         <v>1485</v>
       </c>
     </row>
